--- a/config_7.27/game_enter_btn_config.xlsx
+++ b/config_7.27/game_enter_btn_config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_7.27\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="22" activeTab="28"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="22" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -37,7 +42,7 @@
     <sheet name="hqjb_config|获取金币" sheetId="36" r:id="rId28"/>
     <sheet name="all_enter|所有按钮入口" sheetId="10" r:id="rId29"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -47,13 +52,14 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -62,6 +68,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -172,6 +179,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -182,6 +190,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -242,6 +251,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -252,6 +262,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -291,6 +302,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -301,6 +313,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -355,6 +368,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -365,6 +379,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -375,6 +390,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -396,6 +412,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -406,6 +423,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -721,6 +739,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树礼物</t>
@@ -1101,6 +1120,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1111,6 +1131,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1280,12 +1301,6 @@
     <t>节日扩展活动（非新玩家）</t>
   </si>
   <si>
-    <t>"act_ty_gifts","gift_khlb","enter",</t>
-  </si>
-  <si>
-    <t>欢乐礼包</t>
-  </si>
-  <si>
     <t>"sys_lwgp",</t>
   </si>
   <si>
@@ -1338,19 +1353,44 @@
   </si>
   <si>
     <t>七月赠礼</t>
+  </si>
+  <si>
+    <r>
+      <t>"act_ty_gifts","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gift_hflb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","enter",</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动栏礼包，修改第二个参数</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1362,194 +1402,87 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1558,13 +1491,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799920651875362"/>
+        <fgColor theme="5" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1576,7 +1509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399914548173467"/>
+        <fgColor theme="4" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1586,182 +1519,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1799,242 +1558,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2044,10 +1579,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2116,67 +1651,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="26">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 4" xfId="3"/>
+    <cellStyle name="检查单元格" xfId="1" builtinId="23"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2434,19 +1932,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -2456,7 +1954,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2467,7 +1965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2478,7 +1976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -2489,7 +1987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -2500,7 +1998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -2511,7 +2009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -2523,22 +2021,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -2548,7 +2045,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2559,7 +2056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2571,28 +2068,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.75" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:3">
+    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2603,7 +2099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2614,34 +2110,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
       <c r="B3" s="18"/>
       <c r="C3" s="19"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="18"/>
       <c r="C4" s="19"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2652,7 +2147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2664,21 +2159,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -2688,7 +2182,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2699,7 +2193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2710,7 +2204,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -2722,27 +2216,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2753,7 +2246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2764,27 +2257,26 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2795,7 +2287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2806,7 +2298,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -2818,21 +2310,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -2842,7 +2333,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2853,7 +2344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2865,22 +2356,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -2890,7 +2380,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2901,7 +2391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2913,27 +2403,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I30" sqref="I29:I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2944,7 +2433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2956,28 +2445,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="3" max="3" width="34.75" customWidth="1"/>
     <col min="4" max="4" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:4">
+    <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2991,7 +2479,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -3002,7 +2490,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -3013,7 +2501,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -3025,7 +2513,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -3036,7 +2524,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -3047,7 +2535,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -3058,7 +2546,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -3069,7 +2557,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <v>8</v>
       </c>
@@ -3081,22 +2569,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -3106,7 +2593,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3117,7 +2604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -3128,7 +2615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -3139,7 +2626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -3150,7 +2637,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -3159,7 +2646,7 @@
       </c>
       <c r="C5" s="19"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -3170,34 +2657,31 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" ht="15"/>
-    <row r="18" ht="15.75" spans="10:10">
+    <row r="18" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J18" s="27"/>
     </row>
-    <row r="19" ht="15"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:4">
+    <row r="1" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3211,7 +2695,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -3222,7 +2706,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3232,7 +2716,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3243,7 +2727,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3254,7 +2738,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3265,7 +2749,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3276,7 +2760,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3287,36 +2771,35 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="16.5" spans="2:3">
+    <row r="10" spans="1:4" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B10" s="21"/>
       <c r="C10" s="12"/>
     </row>
-    <row r="11" spans="3:3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="U40" sqref="U40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3327,7 +2810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -3339,23 +2822,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3366,7 +2848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -3378,23 +2860,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3405,7 +2886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -3417,24 +2898,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3445,7 +2925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -3457,26 +2937,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3487,7 +2966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -3498,7 +2977,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -3509,7 +2988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -3521,23 +3000,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3548,7 +3026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3560,26 +3038,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3590,7 +3067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3601,30 +3078,29 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3635,7 +3111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3646,29 +3122,27 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B108" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B133" sqref="B133"/>
+      <selection pane="bottomRight" activeCell="J136" sqref="J135:J136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.375" customWidth="1"/>
     <col min="2" max="2" width="40.25" customWidth="1"/>
@@ -3679,7 +3153,7 @@
     <col min="7" max="7" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="34.5" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>91</v>
       </c>
@@ -3699,7 +3173,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3717,7 +3191,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3735,7 +3209,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3755,7 +3229,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3773,7 +3247,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3791,7 +3265,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3809,7 +3283,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3827,7 +3301,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3845,7 +3319,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3863,7 +3337,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3881,7 +3355,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3899,7 +3373,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3917,7 +3391,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3935,7 +3409,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3953,7 +3427,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3971,7 +3445,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3989,7 +3463,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4007,7 +3481,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4025,7 +3499,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4043,7 +3517,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4061,7 +3535,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4079,7 +3553,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4097,7 +3571,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4115,7 +3589,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4133,7 +3607,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4151,7 +3625,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4169,7 +3643,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4187,7 +3661,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4205,7 +3679,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4223,7 +3697,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4241,7 +3715,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4259,7 +3733,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4277,7 +3751,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4295,7 +3769,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4313,7 +3787,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4331,7 +3805,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4349,7 +3823,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4367,7 +3841,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4385,7 +3859,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4403,7 +3877,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4421,7 +3895,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4438,7 +3912,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4455,7 +3929,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4472,7 +3946,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4489,7 +3963,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4506,7 +3980,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4523,7 +3997,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4540,7 +4014,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4557,7 +4031,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4574,7 +4048,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4591,7 +4065,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4608,7 +4082,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4625,7 +4099,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4643,7 +4117,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4660,7 +4134,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4677,7 +4151,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4694,7 +4168,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4711,7 +4185,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4728,7 +4202,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4745,7 +4219,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4762,7 +4236,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4779,7 +4253,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4796,7 +4270,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4813,7 +4287,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4830,7 +4304,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4847,7 +4321,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4864,7 +4338,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4881,7 +4355,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4898,7 +4372,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4915,7 +4389,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4932,7 +4406,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4949,7 +4423,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4966,7 +4440,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4983,7 +4457,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5000,7 +4474,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5017,7 +4491,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5034,7 +4508,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5051,7 +4525,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5068,7 +4542,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5085,7 +4559,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5102,7 +4576,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5119,7 +4593,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5136,7 +4610,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5153,7 +4627,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5170,7 +4644,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5187,7 +4661,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5204,7 +4678,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5224,7 +4698,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5241,7 +4715,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5258,7 +4732,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5275,7 +4749,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5292,7 +4766,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5309,7 +4783,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5326,7 +4800,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5343,7 +4817,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5360,7 +4834,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5377,7 +4851,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5395,7 +4869,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5412,7 +4886,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5429,7 +4903,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5446,7 +4920,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5466,7 +4940,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="103" s="1" customFormat="1" spans="1:6">
+    <row r="103" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -5483,7 +4957,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5500,7 +4974,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="105" s="2" customFormat="1" spans="1:6">
+    <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -5517,7 +4991,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5537,7 +5011,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5554,7 +5028,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5571,7 +5045,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="109" ht="16.5" spans="1:6">
+    <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5588,7 +5062,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5605,7 +5079,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5622,7 +5096,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5639,7 +5113,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5656,7 +5130,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5673,7 +5147,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5690,7 +5164,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5710,7 +5184,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5730,7 +5204,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="118" ht="16.5" spans="1:6">
+    <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5747,7 +5221,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5764,7 +5238,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5781,7 +5255,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5798,7 +5272,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5815,7 +5289,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5832,7 +5306,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5849,7 +5323,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5866,7 +5340,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5883,7 +5357,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5900,7 +5374,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5917,7 +5391,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5937,7 +5411,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5957,7 +5431,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5977,7 +5451,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5997,12 +5471,12 @@
         <v>356</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="9" t="s">
-        <v>357</v>
+      <c r="B133" s="28" t="s">
+        <v>375</v>
       </c>
       <c r="C133" s="5">
         <v>1</v>
@@ -6010,16 +5484,16 @@
       <c r="E133" s="5">
         <v>132</v>
       </c>
-      <c r="F133" s="5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+      <c r="F133" s="29" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C134" s="5">
         <v>1</v>
@@ -6028,10 +5502,10 @@
         <v>133</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="135" ht="16.5" spans="1:6">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6048,10 +5522,10 @@
         <v>134</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6068,10 +5542,10 @@
         <v>135</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6088,35 +5562,35 @@
         <v>136</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="138" ht="15.75" spans="1:6">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E138">
         <v>137</v>
       </c>
       <c r="F138" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="139" ht="15.75" spans="1:6">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -6128,10 +5602,10 @@
         <v>138</v>
       </c>
       <c r="F139" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -6149,32 +5623,32 @@
         <v>196</v>
       </c>
     </row>
-    <row r="141" ht="15.75" spans="1:6">
+    <row r="141" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E141">
         <v>140</v>
       </c>
       <c r="F141" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="142" ht="15.75" spans="1:6">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -6186,35 +5660,35 @@
         <v>141</v>
       </c>
       <c r="F142" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="143" ht="15.75" spans="1:6">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E143">
         <v>142</v>
       </c>
       <c r="F143" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="144" ht="15.75" spans="1:6">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -6226,32 +5700,31 @@
         <v>143</v>
       </c>
       <c r="F144" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:3">
+    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6262,7 +5735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -6273,7 +5746,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -6284,7 +5757,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -6293,7 +5766,7 @@
       </c>
       <c r="C4" s="19"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -6302,7 +5775,7 @@
       </c>
       <c r="C5" s="19"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>5</v>
       </c>
@@ -6314,21 +5787,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -6338,7 +5810,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6349,7 +5821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -6360,7 +5832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -6371,7 +5843,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -6382,7 +5854,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -6391,7 +5863,7 @@
       </c>
       <c r="C5" s="25"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -6403,24 +5875,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6431,7 +5902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6443,28 +5914,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" s="23" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6475,7 +5945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6487,21 +5957,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -6511,7 +5980,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6522,7 +5991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -6533,7 +6002,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6546,22 +6015,21 @@
       <c r="D3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -6571,7 +6039,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6582,7 +6050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -6593,7 +6061,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -6602,7 +6070,7 @@
       </c>
       <c r="C3" s="19"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -6613,7 +6081,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:3">
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -6625,22 +6093,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -6650,7 +6117,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:5">
+    <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6667,7 +6134,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -6686,7 +6153,7 @@
         <v>快乐礼包</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -6709,7 +6176,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -6728,7 +6195,7 @@
         <v>幸运抽奖</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -6748,7 +6215,7 @@
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -6767,7 +6234,7 @@
         <v>新人红包</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -6786,7 +6253,7 @@
         <v>大厅千元赛</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -6805,7 +6272,7 @@
         <v>首充礼包</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <v>8</v>
       </c>
@@ -6824,7 +6291,7 @@
         <v>鲸鱼福利</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="18"/>
       <c r="D10" s="5">
         <f>'all_enter|所有按钮入口'!E10</f>
@@ -6835,7 +6302,7 @@
         <v>限时福利</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="5">
@@ -6847,7 +6314,7 @@
         <v>月卡</v>
       </c>
     </row>
-    <row r="12" spans="4:5">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D12" s="5">
         <f>'all_enter|所有按钮入口'!E12</f>
         <v>11</v>
@@ -6857,7 +6324,7 @@
         <v>节日扩展活动</v>
       </c>
     </row>
-    <row r="13" spans="4:5">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D13" s="5">
         <f>'all_enter|所有按钮入口'!E13</f>
         <v>12</v>
@@ -6867,7 +6334,7 @@
         <v>幸运降临</v>
       </c>
     </row>
-    <row r="14" spans="4:5">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D14" s="5">
         <f>'all_enter|所有按钮入口'!E14</f>
         <v>13</v>
@@ -6877,7 +6344,7 @@
         <v>消消乐水果排行榜</v>
       </c>
     </row>
-    <row r="15" spans="4:5">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D15" s="5">
         <f>'all_enter|所有按钮入口'!E15</f>
         <v>14</v>
@@ -6887,7 +6354,7 @@
         <v>水浒消消乐每日任务</v>
       </c>
     </row>
-    <row r="16" spans="4:5">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D16" s="5">
         <f>'all_enter|所有按钮入口'!E16</f>
         <v>15</v>
@@ -6897,7 +6364,7 @@
         <v>水果消消乐每日任务</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D17" s="5">
         <f>'all_enter|所有按钮入口'!E17</f>
         <v>16</v>
@@ -6907,7 +6374,7 @@
         <v>新人专属</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D18" s="5">
         <f>'all_enter|所有按钮入口'!E18</f>
         <v>17</v>
@@ -6917,7 +6384,7 @@
         <v>捕鱼达人榜</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D19" s="5">
         <f>'all_enter|所有按钮入口'!E19</f>
         <v>18</v>
@@ -6927,7 +6394,7 @@
         <v>千元赛提示</v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D20" s="5">
         <f>'all_enter|所有按钮入口'!E20</f>
         <v>19</v>
@@ -6937,7 +6404,7 @@
         <v>捕鱼比赛提示</v>
       </c>
     </row>
-    <row r="21" spans="4:5">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D21" s="5">
         <f>'all_enter|所有按钮入口'!E21</f>
         <v>20</v>
@@ -6947,7 +6414,7 @@
         <v>捕鱼门票</v>
       </c>
     </row>
-    <row r="22" spans="4:5">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D22" s="5">
         <f>'all_enter|所有按钮入口'!E22</f>
         <v>21</v>
@@ -6957,7 +6424,7 @@
         <v>感恩有礼</v>
       </c>
     </row>
-    <row r="23" spans="4:5">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D23" s="5">
         <f>'all_enter|所有按钮入口'!E23</f>
         <v>22</v>
@@ -6967,7 +6434,7 @@
         <v>雪球大作战</v>
       </c>
     </row>
-    <row r="24" spans="4:5">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D24" s="5">
         <f>'all_enter|所有按钮入口'!E24</f>
         <v>23</v>
@@ -6977,7 +6444,7 @@
         <v>推广礼包</v>
       </c>
     </row>
-    <row r="25" spans="4:5">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D25" s="5">
         <f>'all_enter|所有按钮入口'!E25</f>
         <v>24</v>
@@ -6987,7 +6454,7 @@
         <v>疯狂双12</v>
       </c>
     </row>
-    <row r="26" spans="4:5">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D26" s="5">
         <f>'all_enter|所有按钮入口'!E26</f>
         <v>25</v>
@@ -6997,7 +6464,7 @@
         <v>财神模式</v>
       </c>
     </row>
-    <row r="27" spans="4:5">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D27" s="5">
         <f>'all_enter|所有按钮入口'!E27</f>
         <v>26</v>
@@ -7007,7 +6474,7 @@
         <v>新版新人红包</v>
       </c>
     </row>
-    <row r="28" spans="4:5">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D28" s="5">
         <f>'all_enter|所有按钮入口'!E28</f>
         <v>27</v>
@@ -7017,7 +6484,7 @@
         <v>新版1元礼包</v>
       </c>
     </row>
-    <row r="29" spans="4:5">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D29" s="5">
         <f>'all_enter|所有按钮入口'!E29</f>
         <v>28</v>
@@ -7027,7 +6494,7 @@
         <v>圣诞敲敲乐</v>
       </c>
     </row>
-    <row r="30" spans="4:5">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D30" s="5">
         <f>'all_enter|所有按钮入口'!E30</f>
         <v>29</v>
@@ -7037,7 +6504,7 @@
         <v>全返礼包</v>
       </c>
     </row>
-    <row r="31" spans="4:5">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D31" s="5">
         <f>'all_enter|所有按钮入口'!E31</f>
         <v>30</v>
@@ -7047,7 +6514,7 @@
         <v>每日特惠礼包</v>
       </c>
     </row>
-    <row r="32" spans="4:5">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D32" s="5">
         <f>'all_enter|所有按钮入口'!E32</f>
         <v>31</v>
@@ -7057,7 +6524,7 @@
         <v>欢庆元旦</v>
       </c>
     </row>
-    <row r="33" spans="4:5">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D33" s="5">
         <f>'all_enter|所有按钮入口'!E33</f>
         <v>32</v>
@@ -7067,7 +6534,7 @@
         <v>水浒图标</v>
       </c>
     </row>
-    <row r="34" spans="4:5">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D34" s="5">
         <f>'all_enter|所有按钮入口'!E34</f>
         <v>33</v>
@@ -7077,7 +6544,7 @@
         <v>随机鲸币</v>
       </c>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D35" s="5">
         <f>'all_enter|所有按钮入口'!E35</f>
         <v>34</v>
@@ -7087,7 +6554,7 @@
         <v>飞-红包</v>
       </c>
     </row>
-    <row r="36" spans="4:5">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D36" s="5">
         <f>'all_enter|所有按钮入口'!E36</f>
         <v>35</v>
@@ -7097,7 +6564,7 @@
         <v>浪漫情人节</v>
       </c>
     </row>
-    <row r="37" spans="4:5">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D37" s="5">
         <f>'all_enter|所有按钮入口'!E37</f>
         <v>36</v>
@@ -7107,7 +6574,7 @@
         <v>新人七天乐</v>
       </c>
     </row>
-    <row r="38" spans="4:5">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D38" s="5">
         <f>'all_enter|所有按钮入口'!E38</f>
         <v>37</v>
@@ -7117,7 +6584,7 @@
         <v>分享拉新</v>
       </c>
     </row>
-    <row r="39" spans="4:5">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D39" s="5">
         <f>'all_enter|所有按钮入口'!E39</f>
         <v>38</v>
@@ -7127,7 +6594,7 @@
         <v>龙腾祈福</v>
       </c>
     </row>
-    <row r="40" spans="4:5">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D40" s="5">
         <f>'all_enter|所有按钮入口'!E40</f>
         <v>39</v>
@@ -7137,7 +6604,7 @@
         <v>房卡场入口</v>
       </c>
     </row>
-    <row r="41" spans="4:5">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D41" s="5">
         <f>'all_enter|所有按钮入口'!E41</f>
         <v>40</v>
@@ -7147,7 +6614,7 @@
         <v>幸运彩贝</v>
       </c>
     </row>
-    <row r="42" spans="4:5">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D42" s="5">
         <f>'all_enter|所有按钮入口'!E42</f>
         <v>41</v>
@@ -7157,7 +6624,7 @@
         <v>植树礼物</v>
       </c>
     </row>
-    <row r="43" spans="4:5">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D43" s="5">
         <f>'all_enter|所有按钮入口'!E43</f>
         <v>42</v>
@@ -7167,7 +6634,7 @@
         <v>季卡</v>
       </c>
     </row>
-    <row r="44" spans="4:5">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D44" s="5">
         <f>'all_enter|所有按钮入口'!E44</f>
         <v>43</v>
@@ -7177,7 +6644,7 @@
         <v>彩金鱼抽奖</v>
       </c>
     </row>
-    <row r="45" spans="4:5">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D45" s="5">
         <f>'all_enter|所有按钮入口'!E45</f>
         <v>44</v>
@@ -7187,7 +6654,7 @@
         <v>0元礼包</v>
       </c>
     </row>
-    <row r="46" spans="4:5">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D46" s="5">
         <f>'all_enter|所有按钮入口'!E46</f>
         <v>45</v>
@@ -7197,7 +6664,7 @@
         <v>红包分享</v>
       </c>
     </row>
-    <row r="47" spans="4:5">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D47" s="5">
         <f>'all_enter|所有按钮入口'!E47</f>
         <v>46</v>
@@ -7207,7 +6674,7 @@
         <v>财神消消乐</v>
       </c>
     </row>
-    <row r="48" spans="4:5">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D48" s="5">
         <f>'all_enter|所有按钮入口'!E48</f>
         <v>47</v>
@@ -7217,7 +6684,7 @@
         <v>随机领红包</v>
       </c>
     </row>
-    <row r="49" spans="4:5">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D49" s="5">
         <f>'all_enter|所有按钮入口'!E49</f>
         <v>48</v>
@@ -7227,7 +6694,7 @@
         <v>回归惊喜</v>
       </c>
     </row>
-    <row r="50" spans="4:5">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D50" s="5">
         <f>'all_enter|所有按钮入口'!E50</f>
         <v>49</v>
@@ -7237,7 +6704,7 @@
         <v>水浒消消乐单笔赢金排行榜</v>
       </c>
     </row>
-    <row r="51" spans="4:5">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D51" s="5">
         <f>'all_enter|所有按钮入口'!E51</f>
         <v>50</v>
@@ -7247,17 +6714,17 @@
         <v>疯狂返利</v>
       </c>
     </row>
-    <row r="52" spans="4:5">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D52" s="5">
         <f>'all_enter|所有按钮入口'!E52</f>
         <v>51</v>
       </c>
       <c r="E52" s="5" t="str">
         <f>'all_enter|所有按钮入口'!F52</f>
-        <v> 抽空调</v>
-      </c>
-    </row>
-    <row r="53" spans="4:5">
+        <v xml:space="preserve"> 抽空调</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D53" s="5">
         <f>'all_enter|所有按钮入口'!E53</f>
         <v>52</v>
@@ -7267,7 +6734,7 @@
         <v>2D-彩金鱼抽奖</v>
       </c>
     </row>
-    <row r="54" spans="4:5">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D54" s="5">
         <f>'all_enter|所有按钮入口'!E54</f>
         <v>53</v>
@@ -7277,7 +6744,7 @@
         <v>3D-彩金鱼抽奖</v>
       </c>
     </row>
-    <row r="55" spans="4:5">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D55" s="5">
         <f>'all_enter|所有按钮入口'!E55</f>
         <v>54</v>
@@ -7287,7 +6754,7 @@
         <v>连购返利</v>
       </c>
     </row>
-    <row r="56" spans="4:5">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D56" s="5">
         <f>'all_enter|所有按钮入口'!E56</f>
         <v>55</v>
@@ -7297,7 +6764,7 @@
         <v>免费红包</v>
       </c>
     </row>
-    <row r="57" spans="4:5">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D57" s="5">
         <f>'all_enter|所有按钮入口'!E57</f>
         <v>56</v>
@@ -7307,7 +6774,7 @@
         <v>幸运彩蛋</v>
       </c>
     </row>
-    <row r="58" spans="4:5">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D58" s="5">
         <f>'all_enter|所有按钮入口'!E58</f>
         <v>57</v>
@@ -7317,7 +6784,7 @@
         <v>消消乐红包任务</v>
       </c>
     </row>
-    <row r="59" spans="4:5">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D59" s="5">
         <f>'all_enter|所有按钮入口'!E59</f>
         <v>58</v>
@@ -7327,7 +6794,7 @@
         <v>新首充礼包</v>
       </c>
     </row>
-    <row r="60" spans="4:5">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D60" s="5">
         <f>'all_enter|所有按钮入口'!E60</f>
         <v>59</v>
@@ -7337,7 +6804,7 @@
         <v>母亲节特惠</v>
       </c>
     </row>
-    <row r="61" spans="4:5">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D61" s="5">
         <f>'all_enter|所有按钮入口'!E61</f>
         <v>60</v>
@@ -7347,7 +6814,7 @@
         <v>水果消消乐</v>
       </c>
     </row>
-    <row r="62" spans="4:5">
+    <row r="62" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D62" s="5">
         <f>'all_enter|所有按钮入口'!E62</f>
         <v>61</v>
@@ -7357,7 +6824,7 @@
         <v>存钱罐</v>
       </c>
     </row>
-    <row r="63" spans="4:5">
+    <row r="63" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D63" s="5">
         <f>'all_enter|所有按钮入口'!E63</f>
         <v>62</v>
@@ -7367,7 +6834,7 @@
         <v>问题反馈</v>
       </c>
     </row>
-    <row r="64" spans="4:5">
+    <row r="64" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D64" s="5">
         <f>'all_enter|所有按钮入口'!E64</f>
         <v>63</v>
@@ -7377,7 +6844,7 @@
         <v>3D捕鱼测试排行榜</v>
       </c>
     </row>
-    <row r="65" spans="4:5">
+    <row r="65" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D65" s="5">
         <f>'all_enter|所有按钮入口'!E65</f>
         <v>64</v>
@@ -7387,7 +6854,7 @@
         <v>排名赛</v>
       </c>
     </row>
-    <row r="66" spans="4:5">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D66" s="5">
         <f>'all_enter|所有按钮入口'!E66</f>
         <v>65</v>
@@ -7397,7 +6864,7 @@
         <v>3D捕鱼奖池-大厅显示奖池图标</v>
       </c>
     </row>
-    <row r="67" spans="4:5">
+    <row r="67" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D67" s="5">
         <f>'all_enter|所有按钮入口'!E67</f>
         <v>66</v>
@@ -7407,7 +6874,7 @@
         <v>3D捕鱼奖池-3D捕鱼场次选择位置</v>
       </c>
     </row>
-    <row r="68" spans="4:5">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D68" s="5">
         <f>'all_enter|所有按钮入口'!E68</f>
         <v>67</v>
@@ -7417,7 +6884,7 @@
         <v>3D捕鱼奖池-4号游戏场显示奖池图标</v>
       </c>
     </row>
-    <row r="69" spans="4:5">
+    <row r="69" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D69" s="5">
         <f>'all_enter|所有按钮入口'!E69</f>
         <v>68</v>
@@ -7427,7 +6894,7 @@
         <v>3D捕鱼奖池-5号游戏场显示奖池图标</v>
       </c>
     </row>
-    <row r="70" spans="4:5">
+    <row r="70" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D70" s="5">
         <f>'all_enter|所有按钮入口'!E70</f>
         <v>69</v>
@@ -7437,7 +6904,7 @@
         <v>3D捕鱼奖池-游戏内显示奖池图标</v>
       </c>
     </row>
-    <row r="71" spans="4:5">
+    <row r="71" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D71" s="5">
         <f>'all_enter|所有按钮入口'!E71</f>
         <v>70</v>
@@ -7447,7 +6914,7 @@
         <v>3D捕鱼奖池-显示说明界面</v>
       </c>
     </row>
-    <row r="72" spans="4:5">
+    <row r="72" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D72" s="5">
         <f>'all_enter|所有按钮入口'!E72</f>
         <v>71</v>
@@ -7457,7 +6924,7 @@
         <v>3D捕鱼开炮送红包-场次2大厅显示</v>
       </c>
     </row>
-    <row r="73" spans="4:5">
+    <row r="73" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D73" s="5">
         <f>'all_enter|所有按钮入口'!E73</f>
         <v>72</v>
@@ -7467,7 +6934,7 @@
         <v>兑换按钮</v>
       </c>
     </row>
-    <row r="74" spans="4:5">
+    <row r="74" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D74" s="5">
         <f>'all_enter|所有按钮入口'!E74</f>
         <v>73</v>
@@ -7477,7 +6944,7 @@
         <v>boss来袭</v>
       </c>
     </row>
-    <row r="75" spans="4:5">
+    <row r="75" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D75" s="5">
         <f>'all_enter|所有按钮入口'!E75</f>
         <v>74</v>
@@ -7487,7 +6954,7 @@
         <v>活跃任务</v>
       </c>
     </row>
-    <row r="76" spans="4:5">
+    <row r="76" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D76" s="5">
         <f>'all_enter|所有按钮入口'!E76</f>
         <v>75</v>
@@ -7497,7 +6964,7 @@
         <v>3D捕鱼开炮送红包-场次3大厅显示</v>
       </c>
     </row>
-    <row r="77" spans="4:5">
+    <row r="77" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D77" s="5">
         <f>'all_enter|所有按钮入口'!E77</f>
         <v>76</v>
@@ -7507,7 +6974,7 @@
         <v>3D捕鱼开炮送红包-场次4大厅显示</v>
       </c>
     </row>
-    <row r="78" spans="4:5">
+    <row r="78" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D78" s="5">
         <f>'all_enter|所有按钮入口'!E78</f>
         <v>77</v>
@@ -7517,7 +6984,7 @@
         <v>3D捕鱼开炮送红包-场次5大厅显示</v>
       </c>
     </row>
-    <row r="79" spans="4:5">
+    <row r="79" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D79" s="5">
         <f>'all_enter|所有按钮入口'!E79</f>
         <v>78</v>
@@ -7527,7 +6994,7 @@
         <v>3D捕鱼开炮送红包-游戏内</v>
       </c>
     </row>
-    <row r="80" spans="4:5">
+    <row r="80" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D80" s="5">
         <f>'all_enter|所有按钮入口'!E80</f>
         <v>79</v>
@@ -7537,7 +7004,7 @@
         <v>炮台升级按钮</v>
       </c>
     </row>
-    <row r="81" spans="4:5">
+    <row r="81" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D81" s="5">
         <f>'all_enter|所有按钮入口'!E81</f>
         <v>80</v>
@@ -7547,7 +7014,7 @@
         <v>畅玩卡</v>
       </c>
     </row>
-    <row r="82" spans="4:5">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D82" s="5">
         <f>'all_enter|所有按钮入口'!E82</f>
         <v>81</v>
@@ -7557,7 +7024,7 @@
         <v>3D捕鱼挑战任务</v>
       </c>
     </row>
-    <row r="83" spans="4:5">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D83" s="5">
         <f>'all_enter|所有按钮入口'!E83</f>
         <v>82</v>
@@ -7567,7 +7034,7 @@
         <v>3D捕鱼游戏上方区域</v>
       </c>
     </row>
-    <row r="84" spans="4:5">
+    <row r="84" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D84" s="5">
         <f>'all_enter|所有按钮入口'!E84</f>
         <v>83</v>
@@ -7577,7 +7044,7 @@
         <v>师徒系统</v>
       </c>
     </row>
-    <row r="85" spans="4:5">
+    <row r="85" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D85" s="5">
         <f>'all_enter|所有按钮入口'!E85</f>
         <v>84</v>
@@ -7587,7 +7054,7 @@
         <v>全返礼包</v>
       </c>
     </row>
-    <row r="86" spans="4:5">
+    <row r="86" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D86" s="5">
         <f>'all_enter|所有按钮入口'!E86</f>
         <v>85</v>
@@ -7597,7 +7064,7 @@
         <v>签到</v>
       </c>
     </row>
-    <row r="87" spans="4:5">
+    <row r="87" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D87" s="5">
         <f>'all_enter|所有按钮入口'!E87</f>
         <v>86</v>
@@ -7607,7 +7074,7 @@
         <v>3D捕鱼自动开炮</v>
       </c>
     </row>
-    <row r="88" spans="4:5">
+    <row r="88" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D88" s="5">
         <f>'all_enter|所有按钮入口'!E88</f>
         <v>87</v>
@@ -7617,7 +7084,7 @@
         <v>免费抽奖-广告</v>
       </c>
     </row>
-    <row r="89" spans="4:5">
+    <row r="89" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D89" s="5">
         <f>'all_enter|所有按钮入口'!E89</f>
         <v>88</v>
@@ -7627,7 +7094,7 @@
         <v>超值礼包</v>
       </c>
     </row>
-    <row r="90" spans="4:5">
+    <row r="90" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D90" s="5">
         <f>'all_enter|所有按钮入口'!E90</f>
         <v>89</v>
@@ -7637,7 +7104,7 @@
         <v>新人抽大奖</v>
       </c>
     </row>
-    <row r="91" spans="4:5">
+    <row r="91" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D91" s="5">
         <f>'all_enter|所有按钮入口'!E91</f>
         <v>90</v>
@@ -7647,7 +7114,7 @@
         <v>水果消消乐引导</v>
       </c>
     </row>
-    <row r="92" spans="4:5">
+    <row r="92" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D92" s="5">
         <f>'all_enter|所有按钮入口'!E92</f>
         <v>91</v>
@@ -7657,7 +7124,7 @@
         <v>水果消消乐大引导</v>
       </c>
     </row>
-    <row r="93" spans="4:5">
+    <row r="93" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D93" s="5">
         <f>'all_enter|所有按钮入口'!E93</f>
         <v>92</v>
@@ -7667,7 +7134,7 @@
         <v>推广系统</v>
       </c>
     </row>
-    <row r="94" spans="4:5">
+    <row r="94" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D94" s="5">
         <f>'all_enter|所有按钮入口'!E94</f>
         <v>93</v>
@@ -7677,7 +7144,7 @@
         <v>充值消耗模板</v>
       </c>
     </row>
-    <row r="95" spans="4:5">
+    <row r="95" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D95" s="5">
         <f>'all_enter|所有按钮入口'!E95</f>
         <v>94</v>
@@ -7687,7 +7154,7 @@
         <v>免费福利券</v>
       </c>
     </row>
-    <row r="96" spans="4:5">
+    <row r="96" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D96" s="5">
         <f>'all_enter|所有按钮入口'!E96</f>
         <v>95</v>
@@ -7697,7 +7164,7 @@
         <v>奖池按钮图标</v>
       </c>
     </row>
-    <row r="97" spans="4:5">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D97" s="5">
         <f>'all_enter|所有按钮入口'!E97</f>
         <v>96</v>
@@ -7707,7 +7174,7 @@
         <v>奖池游戏内显示</v>
       </c>
     </row>
-    <row r="98" spans="4:5">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D98" s="5">
         <f>'all_enter|所有按钮入口'!E98</f>
         <v>97</v>
@@ -7717,7 +7184,7 @@
         <v>免费话费</v>
       </c>
     </row>
-    <row r="99" spans="4:5">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D99" s="5">
         <f>'all_enter|所有按钮入口'!E99</f>
         <v>98</v>
@@ -7727,7 +7194,7 @@
         <v>幸运彩蛋</v>
       </c>
     </row>
-    <row r="100" spans="4:5">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D100" s="5">
         <f>'all_enter|所有按钮入口'!E100</f>
         <v>99</v>
@@ -7737,7 +7204,7 @@
         <v>街机捕鱼游戏上方区域</v>
       </c>
     </row>
-    <row r="101" spans="4:5">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D101" s="5">
         <f>'all_enter|所有按钮入口'!E101</f>
         <v>100</v>
@@ -7747,7 +7214,7 @@
         <v>欢乐敲金蛋</v>
       </c>
     </row>
-    <row r="102" spans="4:5">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D102" s="5">
         <f>'all_enter|所有按钮入口'!E102</f>
         <v>101</v>
@@ -7757,7 +7224,7 @@
         <v>小游戏累计赢金抽福卡</v>
       </c>
     </row>
-    <row r="103" spans="4:5">
+    <row r="103" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D103" s="5">
         <f>'all_enter|所有按钮入口'!E103</f>
         <v>102</v>
@@ -7767,7 +7234,7 @@
         <v>畅玩礼包</v>
       </c>
     </row>
-    <row r="104" spans="4:5">
+    <row r="104" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D104" s="5">
         <f>'all_enter|所有按钮入口'!E104</f>
         <v>103</v>
@@ -7777,7 +7244,7 @@
         <v>核弹</v>
       </c>
     </row>
-    <row r="105" spans="4:5">
+    <row r="105" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D105" s="5">
         <f>'all_enter|所有按钮入口'!E105</f>
         <v>104</v>
@@ -7787,7 +7254,7 @@
         <v>大额福利券（跳转小游戏入口）</v>
       </c>
     </row>
-    <row r="106" spans="4:5">
+    <row r="106" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D106" s="5">
         <f>'all_enter|所有按钮入口'!E106</f>
         <v>105</v>
@@ -7797,7 +7264,7 @@
         <v>金鸡送礼（冲金鸡）</v>
       </c>
     </row>
-    <row r="107" spans="4:5">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D107" s="5">
         <f>'all_enter|所有按钮入口'!E107</f>
         <v>106</v>
@@ -7807,7 +7274,7 @@
         <v>万圣幸运礼包</v>
       </c>
     </row>
-    <row r="108" spans="4:5">
+    <row r="108" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D108" s="5">
         <f>'all_enter|所有按钮入口'!E108</f>
         <v>107</v>
@@ -7817,7 +7284,7 @@
         <v>新人专享</v>
       </c>
     </row>
-    <row r="109" spans="4:5">
+    <row r="109" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D109" s="5">
         <f>'all_enter|所有按钮入口'!E109</f>
         <v>108</v>
@@ -7827,7 +7294,7 @@
         <v>排行榜总入口</v>
       </c>
     </row>
-    <row r="110" spans="4:5">
+    <row r="110" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D110" s="5">
         <f>'all_enter|所有按钮入口'!E110</f>
         <v>109</v>
@@ -7837,7 +7304,7 @@
         <v>深海探险</v>
       </c>
     </row>
-    <row r="111" spans="4:5">
+    <row r="111" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D111" s="5">
         <f>'all_enter|所有按钮入口'!E111</f>
         <v>110</v>
@@ -7847,7 +7314,7 @@
         <v>一本万利</v>
       </c>
     </row>
-    <row r="112" spans="4:5">
+    <row r="112" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D112" s="5">
         <f>'all_enter|所有按钮入口'!E112</f>
         <v>111</v>
@@ -7857,7 +7324,7 @@
         <v>UI-精彩活动</v>
       </c>
     </row>
-    <row r="113" spans="4:5">
+    <row r="113" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D113" s="5">
         <f>'all_enter|所有按钮入口'!E113</f>
         <v>112</v>
@@ -7867,7 +7334,7 @@
         <v>UI-获取金币</v>
       </c>
     </row>
-    <row r="114" spans="4:5">
+    <row r="114" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D114" s="5">
         <f>'all_enter|所有按钮入口'!E114</f>
         <v>113</v>
@@ -7877,7 +7344,7 @@
         <v>新人七天乐（旧）</v>
       </c>
     </row>
-    <row r="115" spans="4:5">
+    <row r="115" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D115" s="5">
         <f>'all_enter|所有按钮入口'!E115</f>
         <v>114</v>
@@ -7887,7 +7354,7 @@
         <v>聚划算</v>
       </c>
     </row>
-    <row r="116" spans="4:5">
+    <row r="116" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D116" s="5">
         <f>'all_enter|所有按钮入口'!E116</f>
         <v>115</v>
@@ -7897,7 +7364,7 @@
         <v>免费话费(冲金鸡)</v>
       </c>
     </row>
-    <row r="117" spans="4:5">
+    <row r="117" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D117" s="5">
         <f>'all_enter|所有按钮入口'!E117</f>
         <v>116</v>
@@ -7907,7 +7374,7 @@
         <v>幸运抽奖</v>
       </c>
     </row>
-    <row r="118" spans="4:5">
+    <row r="118" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D118" s="5">
         <f>'all_enter|所有按钮入口'!E118</f>
         <v>117</v>
@@ -7917,7 +7384,7 @@
         <v>元旦福利</v>
       </c>
     </row>
-    <row r="119" spans="4:5">
+    <row r="119" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D119" s="5">
         <f>'all_enter|所有按钮入口'!E119</f>
         <v>118</v>
@@ -7927,7 +7394,7 @@
         <v>充值商城</v>
       </c>
     </row>
-    <row r="120" spans="4:5">
+    <row r="120" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D120" s="5">
         <f>'all_enter|所有按钮入口'!E120</f>
         <v>119</v>
@@ -7937,7 +7404,7 @@
         <v>游戏互导向斗地主</v>
       </c>
     </row>
-    <row r="121" spans="4:5">
+    <row r="121" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D121" s="5">
         <f>'all_enter|所有按钮入口'!E121</f>
         <v>120</v>
@@ -7947,7 +7414,7 @@
         <v>通用转盘</v>
       </c>
     </row>
-    <row r="122" spans="4:5">
+    <row r="122" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D122" s="5">
         <f>'all_enter|所有按钮入口'!E122</f>
         <v>121</v>
@@ -7957,7 +7424,7 @@
         <v>发财礼包</v>
       </c>
     </row>
-    <row r="123" spans="4:5">
+    <row r="123" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D123" s="5">
         <f>'all_enter|所有按钮入口'!E123</f>
         <v>122</v>
@@ -7967,7 +7434,7 @@
         <v>赢一把就睡觉</v>
       </c>
     </row>
-    <row r="124" spans="4:5">
+    <row r="124" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D124" s="5">
         <f>'all_enter|所有按钮入口'!E124</f>
         <v>123</v>
@@ -7977,7 +7444,7 @@
         <v>疯狂砸金蛋</v>
       </c>
     </row>
-    <row r="125" spans="4:5">
+    <row r="125" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D125" s="5">
         <f>'all_enter|所有按钮入口'!E125</f>
         <v>124</v>
@@ -7987,7 +7454,7 @@
         <v>新年送茅台</v>
       </c>
     </row>
-    <row r="126" spans="4:5">
+    <row r="126" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D126" s="5">
         <f>'all_enter|所有按钮入口'!E126</f>
         <v>125</v>
@@ -7997,7 +7464,7 @@
         <v>红包鱼来袭提示</v>
       </c>
     </row>
-    <row r="127" spans="4:5">
+    <row r="127" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D127" s="5">
         <f>'all_enter|所有按钮入口'!E127</f>
         <v>126</v>
@@ -8007,7 +7474,7 @@
         <v>新人限时福利</v>
       </c>
     </row>
-    <row r="128" spans="4:5">
+    <row r="128" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D128" s="5">
         <f>'all_enter|所有按钮入口'!E128</f>
         <v>127</v>
@@ -8017,7 +7484,7 @@
         <v>小游戏托管</v>
       </c>
     </row>
-    <row r="129" spans="4:5">
+    <row r="129" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D129" s="5">
         <f>'all_enter|所有按钮入口'!E129</f>
         <v>128</v>
@@ -8027,7 +7494,7 @@
         <v>新人限时福利</v>
       </c>
     </row>
-    <row r="130" spans="4:5">
+    <row r="130" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D130" s="5">
         <f>'all_enter|所有按钮入口'!E130</f>
         <v>129</v>
@@ -8037,7 +7504,7 @@
         <v>水果消消乐爬塔</v>
       </c>
     </row>
-    <row r="131" spans="4:5">
+    <row r="131" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D131" s="5">
         <f>'all_enter|所有按钮入口'!E131</f>
         <v>130</v>
@@ -8047,7 +7514,7 @@
         <v>节日扩展活动（新玩家）</v>
       </c>
     </row>
-    <row r="132" spans="4:5">
+    <row r="132" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D132" s="5">
         <f>'all_enter|所有按钮入口'!E132</f>
         <v>131</v>
@@ -8057,17 +7524,17 @@
         <v>节日扩展活动（非新玩家）</v>
       </c>
     </row>
-    <row r="133" spans="4:5">
+    <row r="133" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D133" s="5">
         <f>'all_enter|所有按钮入口'!E133</f>
         <v>132</v>
       </c>
       <c r="E133" s="5" t="str">
         <f>'all_enter|所有按钮入口'!F133</f>
-        <v>欢乐礼包</v>
-      </c>
-    </row>
-    <row r="134" spans="4:5">
+        <v>活动栏礼包，修改第二个参数</v>
+      </c>
+    </row>
+    <row r="134" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D134" s="5">
         <f>'all_enter|所有按钮入口'!E134</f>
         <v>133</v>
@@ -8077,7 +7544,7 @@
         <v>龙王贡品</v>
       </c>
     </row>
-    <row r="135" spans="4:5">
+    <row r="135" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D135" s="5">
         <f>'all_enter|所有按钮入口'!E135</f>
         <v>134</v>
@@ -8087,7 +7554,7 @@
         <v>排行榜（冲金鸡大厅）</v>
       </c>
     </row>
-    <row r="136" spans="4:5">
+    <row r="136" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D136" s="5">
         <f>'all_enter|所有按钮入口'!E136</f>
         <v>135</v>
@@ -8097,7 +7564,7 @@
         <v>欢乐豪礼（新玩家）</v>
       </c>
     </row>
-    <row r="137" spans="4:5">
+    <row r="137" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D137" s="5">
         <f>'all_enter|所有按钮入口'!E137</f>
         <v>136</v>
@@ -8107,7 +7574,7 @@
         <v>欢乐豪礼（非新玩家）</v>
       </c>
     </row>
-    <row r="138" spans="4:5">
+    <row r="138" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D138" s="5">
         <f>'all_enter|所有按钮入口'!E138</f>
         <v>137</v>
@@ -8117,7 +7584,7 @@
         <v>秒杀礼包-捕鱼</v>
       </c>
     </row>
-    <row r="139" spans="4:5">
+    <row r="139" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D139" s="5">
         <f>'all_enter|所有按钮入口'!E139</f>
         <v>138</v>
@@ -8127,7 +7594,7 @@
         <v>秒杀礼包-cjj</v>
       </c>
     </row>
-    <row r="140" spans="4:5">
+    <row r="140" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D140" s="5">
         <f>'all_enter|所有按钮入口'!E140</f>
         <v>139</v>
@@ -8137,7 +7604,7 @@
         <v>疯狂返利</v>
       </c>
     </row>
-    <row r="141" spans="4:5">
+    <row r="141" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D141" s="5">
         <f>'all_enter|所有按钮入口'!E141</f>
         <v>140</v>
@@ -8147,7 +7614,7 @@
         <v>通行证</v>
       </c>
     </row>
-    <row r="142" spans="4:5">
+    <row r="142" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D142" s="5">
         <f>'all_enter|所有按钮入口'!E142</f>
         <v>141</v>
@@ -8157,7 +7624,7 @@
         <v>超级夺宝</v>
       </c>
     </row>
-    <row r="143" spans="4:5">
+    <row r="143" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D143" s="5">
         <v>142</v>
       </c>
@@ -8166,7 +7633,7 @@
         <v>限时红包</v>
       </c>
     </row>
-    <row r="144" spans="4:5">
+    <row r="144" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D144" s="5">
         <v>143</v>
       </c>
@@ -8176,9 +7643,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_7.27/game_enter_btn_config.xlsx
+++ b/config_7.27/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="22" activeTab="28"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="22" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -461,9 +461,6 @@
     <t>101;11;93#</t>
   </si>
   <si>
-    <t>132#120#</t>
-  </si>
-  <si>
     <t>all</t>
   </si>
   <si>
@@ -1383,6 +1380,10 @@
   </si>
   <si>
     <t>活动栏礼包，修改第二个参数</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>132#100#</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -3009,8 +3010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3034,7 +3035,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>87</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -3072,10 +3073,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3116,10 +3117,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3135,11 +3136,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B126" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J136" sqref="J135:J136"/>
+      <selection pane="bottomRight" activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3155,22 +3156,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3178,7 +3179,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
@@ -3188,7 +3189,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3196,7 +3197,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -3206,7 +3207,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -3214,19 +3215,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="E4" s="5">
         <v>3</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -3234,7 +3235,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -3244,7 +3245,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -3252,7 +3253,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -3262,7 +3263,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3270,7 +3271,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -3280,7 +3281,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -3288,7 +3289,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -3298,7 +3299,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -3306,7 +3307,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -3316,7 +3317,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -3324,7 +3325,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -3334,7 +3335,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -3342,7 +3343,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -3352,7 +3353,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -3360,7 +3361,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -3370,7 +3371,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3378,7 +3379,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -3388,7 +3389,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -3396,7 +3397,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
@@ -3406,7 +3407,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3414,7 +3415,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
@@ -3424,7 +3425,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -3432,7 +3433,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
@@ -3442,7 +3443,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3450,7 +3451,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -3460,7 +3461,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3468,7 +3469,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" s="5">
         <v>0</v>
@@ -3478,7 +3479,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -3486,7 +3487,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -3496,7 +3497,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3504,7 +3505,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -3514,7 +3515,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3522,7 +3523,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
@@ -3532,7 +3533,7 @@
         <v>20</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3540,7 +3541,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C22" s="5">
         <v>0</v>
@@ -3550,7 +3551,7 @@
         <v>21</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -3558,7 +3559,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C23" s="5">
         <v>0</v>
@@ -3568,7 +3569,7 @@
         <v>22</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3576,7 +3577,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
@@ -3586,7 +3587,7 @@
         <v>23</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3594,7 +3595,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C25" s="5">
         <v>0</v>
@@ -3604,7 +3605,7 @@
         <v>24</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -3612,7 +3613,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
@@ -3622,7 +3623,7 @@
         <v>25</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -3630,7 +3631,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
@@ -3640,7 +3641,7 @@
         <v>26</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -3648,7 +3649,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
@@ -3658,7 +3659,7 @@
         <v>27</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -3666,7 +3667,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C29" s="5">
         <v>0</v>
@@ -3676,7 +3677,7 @@
         <v>28</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -3684,7 +3685,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
@@ -3694,7 +3695,7 @@
         <v>29</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -3702,7 +3703,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C31" s="5">
         <v>1</v>
@@ -3712,7 +3713,7 @@
         <v>30</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3720,7 +3721,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C32" s="5">
         <v>0</v>
@@ -3730,7 +3731,7 @@
         <v>31</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -3738,7 +3739,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C33" s="5">
         <v>0</v>
@@ -3748,7 +3749,7 @@
         <v>32</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -3756,7 +3757,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C34" s="5">
         <v>1</v>
@@ -3766,7 +3767,7 @@
         <v>33</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3774,7 +3775,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C35" s="5">
         <v>1</v>
@@ -3784,7 +3785,7 @@
         <v>34</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3792,7 +3793,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C36" s="5">
         <v>1</v>
@@ -3802,7 +3803,7 @@
         <v>35</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3810,7 +3811,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
@@ -3820,7 +3821,7 @@
         <v>36</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3828,7 +3829,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
@@ -3838,7 +3839,7 @@
         <v>37</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3846,7 +3847,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C39" s="5">
         <v>1</v>
@@ -3856,7 +3857,7 @@
         <v>38</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -3864,7 +3865,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C40" s="5">
         <v>1</v>
@@ -3874,7 +3875,7 @@
         <v>39</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -3882,7 +3883,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C41" s="5">
         <v>1</v>
@@ -3892,7 +3893,7 @@
         <v>40</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -3900,7 +3901,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3909,7 +3910,7 @@
         <v>41</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -3917,7 +3918,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3926,7 +3927,7 @@
         <v>42</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -3934,7 +3935,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3943,7 +3944,7 @@
         <v>43</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -3951,7 +3952,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -3960,7 +3961,7 @@
         <v>44</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -3968,7 +3969,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -3977,7 +3978,7 @@
         <v>45</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -3985,7 +3986,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3994,7 +3995,7 @@
         <v>46</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -4002,7 +4003,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4011,7 +4012,7 @@
         <v>47</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -4019,7 +4020,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4028,7 +4029,7 @@
         <v>48</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -4036,7 +4037,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -4045,7 +4046,7 @@
         <v>49</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -4053,7 +4054,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4062,7 +4063,7 @@
         <v>50</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -4070,7 +4071,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4079,7 +4080,7 @@
         <v>51</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -4087,7 +4088,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4096,7 +4097,7 @@
         <v>52</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -4104,7 +4105,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
@@ -4114,7 +4115,7 @@
         <v>53</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -4122,7 +4123,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -4131,7 +4132,7 @@
         <v>54</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -4139,7 +4140,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4148,7 +4149,7 @@
         <v>55</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -4156,7 +4157,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4165,7 +4166,7 @@
         <v>56</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -4173,7 +4174,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4182,7 +4183,7 @@
         <v>57</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -4190,7 +4191,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -4199,7 +4200,7 @@
         <v>58</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -4207,7 +4208,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4216,7 +4217,7 @@
         <v>59</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -4224,7 +4225,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4233,7 +4234,7 @@
         <v>60</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -4241,7 +4242,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4250,7 +4251,7 @@
         <v>61</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -4258,7 +4259,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4267,7 +4268,7 @@
         <v>62</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -4275,7 +4276,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4284,7 +4285,7 @@
         <v>63</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -4292,7 +4293,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4301,7 +4302,7 @@
         <v>64</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -4309,7 +4310,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4318,7 +4319,7 @@
         <v>65</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -4326,7 +4327,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4335,7 +4336,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -4343,7 +4344,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4352,7 +4353,7 @@
         <v>67</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -4360,7 +4361,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4369,7 +4370,7 @@
         <v>68</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -4377,7 +4378,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4386,7 +4387,7 @@
         <v>69</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -4394,7 +4395,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4403,7 +4404,7 @@
         <v>70</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -4411,7 +4412,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4420,7 +4421,7 @@
         <v>71</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -4428,7 +4429,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4437,7 +4438,7 @@
         <v>72</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -4445,7 +4446,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4454,7 +4455,7 @@
         <v>73</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -4462,7 +4463,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4471,7 +4472,7 @@
         <v>74</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -4479,7 +4480,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4488,7 +4489,7 @@
         <v>75</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -4496,7 +4497,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4505,7 +4506,7 @@
         <v>76</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -4513,7 +4514,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4522,7 +4523,7 @@
         <v>77</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -4530,7 +4531,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4539,7 +4540,7 @@
         <v>78</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -4547,7 +4548,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4556,7 +4557,7 @@
         <v>79</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -4564,7 +4565,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4573,7 +4574,7 @@
         <v>80</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -4581,7 +4582,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4590,7 +4591,7 @@
         <v>81</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -4598,7 +4599,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4607,7 +4608,7 @@
         <v>82</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -4615,7 +4616,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4624,7 +4625,7 @@
         <v>83</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -4632,7 +4633,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4641,7 +4642,7 @@
         <v>84</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -4649,7 +4650,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4658,7 +4659,7 @@
         <v>85</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -4666,7 +4667,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4675,7 +4676,7 @@
         <v>86</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -4683,19 +4684,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>267</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>268</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4703,7 +4704,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4712,7 +4713,7 @@
         <v>88</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4720,7 +4721,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4729,7 +4730,7 @@
         <v>89</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4737,7 +4738,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4746,7 +4747,7 @@
         <v>90</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4754,7 +4755,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4763,7 +4764,7 @@
         <v>91</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4771,7 +4772,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4780,7 +4781,7 @@
         <v>92</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4788,7 +4789,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -4797,7 +4798,7 @@
         <v>93</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4805,7 +4806,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4814,7 +4815,7 @@
         <v>94</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4822,7 +4823,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4831,7 +4832,7 @@
         <v>95</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -4839,7 +4840,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4848,7 +4849,7 @@
         <v>96</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -4856,7 +4857,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4866,7 +4867,7 @@
         <v>97</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -4874,7 +4875,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4883,7 +4884,7 @@
         <v>98</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -4891,7 +4892,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4900,7 +4901,7 @@
         <v>99</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -4908,7 +4909,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4917,7 +4918,7 @@
         <v>100</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -4925,19 +4926,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>295</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>296</v>
       </c>
       <c r="E102">
         <v>101</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4945,7 +4946,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
@@ -4954,7 +4955,7 @@
         <v>102</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -4962,7 +4963,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -4971,7 +4972,7 @@
         <v>103</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4979,7 +4980,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C105" s="2">
         <v>1</v>
@@ -4988,7 +4989,7 @@
         <v>104</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -4996,19 +4997,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106" s="5" t="s">
         <v>304</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>305</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -5016,7 +5017,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -5025,7 +5026,7 @@
         <v>106</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -5033,7 +5034,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -5042,7 +5043,7 @@
         <v>107</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5050,7 +5051,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5059,7 +5060,7 @@
         <v>108</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -5067,7 +5068,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5076,7 +5077,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5084,7 +5085,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5093,7 +5094,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5101,7 +5102,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5110,7 +5111,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5118,7 +5119,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5127,7 +5128,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5135,7 +5136,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5144,7 +5145,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5152,7 +5153,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5161,7 +5162,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5169,19 +5170,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5189,19 +5190,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" s="5" t="s">
         <v>327</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>328</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5209,7 +5210,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5218,7 +5219,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5226,7 +5227,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5235,7 +5236,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -5243,7 +5244,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5252,7 +5253,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5260,7 +5261,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5269,7 +5270,7 @@
         <v>120</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5277,7 +5278,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5286,7 +5287,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -5294,7 +5295,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5303,7 +5304,7 @@
         <v>122</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -5311,7 +5312,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5320,7 +5321,7 @@
         <v>123</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -5328,7 +5329,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5337,7 +5338,7 @@
         <v>124</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -5345,7 +5346,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -5354,7 +5355,7 @@
         <v>125</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -5362,7 +5363,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -5371,7 +5372,7 @@
         <v>126</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -5379,7 +5380,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -5388,7 +5389,7 @@
         <v>127</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -5396,19 +5397,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E129">
         <v>128</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -5416,19 +5417,19 @@
         <v>129</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E130">
         <v>129</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -5436,19 +5437,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C131" s="5">
         <v>1</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E131" s="5">
         <v>130</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -5456,19 +5457,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C132" s="5">
         <v>1</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E132" s="5">
         <v>131</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -5476,7 +5477,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C133" s="5">
         <v>1</v>
@@ -5485,7 +5486,7 @@
         <v>132</v>
       </c>
       <c r="F133" s="29" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -5493,7 +5494,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C134" s="5">
         <v>1</v>
@@ -5502,7 +5503,7 @@
         <v>133</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5510,19 +5511,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E135">
         <v>134</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -5530,19 +5531,19 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E136">
         <v>135</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -5550,19 +5551,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E137">
         <v>136</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5570,19 +5571,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138" t="s">
         <v>362</v>
-      </c>
-      <c r="C138">
-        <v>1</v>
-      </c>
-      <c r="D138" t="s">
-        <v>363</v>
       </c>
       <c r="E138">
         <v>137</v>
       </c>
       <c r="F138" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5590,19 +5591,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E139">
         <v>138</v>
       </c>
       <c r="F139" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -5610,7 +5611,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -5620,7 +5621,7 @@
         <v>139</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5628,19 +5629,19 @@
         <v>140</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E141">
         <v>140</v>
       </c>
       <c r="F141" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5648,19 +5649,19 @@
         <v>141</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E142">
         <v>141</v>
       </c>
       <c r="F142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5668,19 +5669,19 @@
         <v>142</v>
       </c>
       <c r="B143" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143" t="s">
         <v>370</v>
-      </c>
-      <c r="C143">
-        <v>1</v>
-      </c>
-      <c r="D143" t="s">
-        <v>371</v>
       </c>
       <c r="E143">
         <v>142</v>
       </c>
       <c r="F143" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5688,19 +5689,19 @@
         <v>143</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E144">
         <v>143</v>
       </c>
       <c r="F144" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
